--- a/data-raw/resenhas/conjuntura.xlsx
+++ b/data-raw/resenhas/conjuntura.xlsx
@@ -7,27 +7,88 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="fundos" sheetId="1" r:id="rId1"/>
+    <sheet name="Conjuntura" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Essa aqui é uma resenha</t>
-  </si>
-  <si>
-    <t>estrategia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>atividadeeconomica</t>
+  </si>
+  <si>
+    <t>atividade.eco.es</t>
+  </si>
+  <si>
+    <t>O Produto Interno Bruto (PIB) do Espírito Santo vem mantendo bom desempenho em 2018. Dados divulgados pelo Instituto Jones dos Santos Neves (IJSN) referentes ao terceiro trimestre de 2018 mostram que o ritmo de crescimento da economia capixaba neste ano avançou 2,3% no acumulado do ano em comparação ao mesmo período do ano anterior. O número representa mais que o dobro do resultado nacional, que ficou em 1,1% na mesma base de comparação.</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>mercados</t>
+  </si>
+  <si>
+    <t>consumo</t>
+  </si>
+  <si>
+    <t>Um dos principais motores da economia, o consumo das famílias reduziu seu ritmo de crescimento no 2T de 2018, divulgou o IBGE. Apesar da alta de 1,7% no trimestre, se comparado ao mesmo período de 2017, houve crescimento de apenas 0,1% em relção ao semestre anterior. Contribuem para esse cenário o aumento da informalidade no mercado de trabalho e estagnação da renda.</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>setorpublico.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A previsão do mercado financeiro para a queda da economia brasileira este ano foi ajustada de 5,46% para 5,28%. Para o próximo ano, a expectativa é de crescimento de 3,50%, a mesma previsão há 14 semanas consecutivas. Em 2022 e 2023, o mercado financeiro continua a projetar expansão de 2,50% do PIB. &lt;br&gt; O indice de Atividade Economica do Banco Central (IBC-Br) que, com cautela, pode ser utilizado como sinalizador do Produto Interno Bruto (PIB), apresentou avanço de 0,02 por cento em outubro na comparação com o mês anterior, de acordo com dado dessazonalizado divulgado BC. O desempenho foi melhor que a expectativa em pesquisa da Reuters de contração de 0,20 por cento, representando o quinto resultado positivo no ano. </t>
+  </si>
+  <si>
+    <t>Para 2019, é esperado um aumento dos juros, motivado por uma provável recuperação da economia. Na média, os analistas do mercado financeiro esperam que a Selic feche o próximo ano em 7,5%. &lt;br&gt;
+No mercado de trabalho, a taxa de desemprego no Brasil recuou para 11,6% no trimestre encerrado em novembro, segundo dados divulgados pelo IBGE, se mantendo praticamente constante — caiu 0,1% em relação ao mês anterior. Não obstante, o sinal é positivo pois foi a oitava queda mensal consecutiva no país.</t>
+  </si>
+  <si>
+    <t>A lenta retomada da economia e o mercado de trabalho fragilizado continuam contribuindo para desaceleração do consumo e, consequentemente, da demanda por crédito. Embora em crescimento, a demanda por crédito foi bem aquém do projetado para o trimestre, conforme a Pesquisa Trimestral de Condições de Crédito do Departamento de Estudos e Pesquisas do Banco Central, frustando as expectativas do mercado de crédito pelo segundo trimestre consecutivo.&lt;br&gt;
+Pelo lado da oferta, houve melhora da percepção do mercado em relação ao risco de crédito, revertendo o resultado negativo do trimestre anterior. Entretanto, a oferta também esteve abaixo da expectativa para o trimestre.&lt;br&gt;
+O Espírito Santo ganhou destaque em setembro, quando um estudo da Fecomercio-SP apontou Vitória como a cidade de maior endividamento das famílias entre as capitais — 49%. Embora o endividamento não seja sinônimo da inadimplência, o primeiro antecede o segundo e sua elevação representa um fator de risco a ser monitorado pelos bancos.</t>
+  </si>
+  <si>
+    <t>O Índice Nacional de Preços ao Consumidor Amplo (IPCA) teve queda de 0,21% em novembro, conforme divulgado pelo IBGE. O resultado foi o menor desde julho de 2017, quando houve queda de 0,23%. Entre os meses de novembro, a queda é a menor desde o início do Plano Real em 1994. Em 12 meses, a inflação acumula 4,05% enquanto a taxa acumulada de 2018 é de 3,59%.&lt;br&gt;
+O comportamento brando dos índices de inflação é essencial para a recuperação do consumo das famílias e do crédito, uma vez que os últimos dados mostram contração da renda média familiar durante o período de recessão. Para 2019, os economistas das instituições financeiras diminuíram a expectativa de inflação de 4,03% para 4,01%. A meta central do próximo ano é de 4,25%, e o intervalo de tolerância do sistema de metas varia de 2,75% a 5,75%.</t>
+  </si>
+  <si>
+    <t>setorpublico.br</t>
+  </si>
+  <si>
+    <t>Aqui é a resenha sobre setor público brasileiro.</t>
+  </si>
+  <si>
+    <t>Aqui é a resenha sobre setor público capixaba.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +116,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,25 +444,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/resenhas/conjuntura.xlsx
+++ b/data-raw/resenhas/conjuntura.xlsx
@@ -22,9 +22,6 @@
     <t>atividade.eco.es</t>
   </si>
   <si>
-    <t>O Produto Interno Bruto (PIB) do Espírito Santo vem mantendo bom desempenho em 2018. Dados divulgados pelo Instituto Jones dos Santos Neves (IJSN) referentes ao terceiro trimestre de 2018 mostram que o ritmo de crescimento da economia capixaba neste ano avançou 2,3% no acumulado do ano em comparação ao mesmo período do ano anterior. O número representa mais que o dobro do resultado nacional, que ficou em 1,1% na mesma base de comparação.</t>
-  </si>
-  <si>
     <t>inflacao</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t>setorpublico.es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A previsão do mercado financeiro para a queda da economia brasileira este ano foi ajustada de 5,46% para 5,28%. Para o próximo ano, a expectativa é de crescimento de 3,50%, a mesma previsão há 14 semanas consecutivas. Em 2022 e 2023, o mercado financeiro continua a projetar expansão de 2,50% do PIB. &lt;br&gt; O indice de Atividade Economica do Banco Central (IBC-Br) que, com cautela, pode ser utilizado como sinalizador do Produto Interno Bruto (PIB), apresentou avanço de 0,02 por cento em outubro na comparação com o mês anterior, de acordo com dado dessazonalizado divulgado BC. O desempenho foi melhor que a expectativa em pesquisa da Reuters de contração de 0,20 por cento, representando o quinto resultado positivo no ano. </t>
   </si>
   <si>
     <t>Para 2019, é esperado um aumento dos juros, motivado por uma provável recuperação da economia. Na média, os analistas do mercado financeiro esperam que a Selic feche o próximo ano em 7,5%. &lt;br&gt;
@@ -62,10 +56,35 @@
     <t>setorpublico.br</t>
   </si>
   <si>
-    <t>Aqui é a resenha sobre setor público brasileiro.</t>
-  </si>
-  <si>
-    <t>Aqui é a resenha sobre setor público capixaba.</t>
+    <t>Aqui é a resenha de setor público capixaba.</t>
+  </si>
+  <si>
+    <t>Passado o pior momento da pandemia, que exigiu uma série de gastos extraordinários
+e não previstos no orçamento fiscal, as contas públicas começaram a se ajustar em 2021. Em setembro, o resultado primário do Governo Central
+, calculado à partir da diferença
+entre receitas e despesas, gerou um superávit de R$ 302 milhões a preços correntes.
+Este resultado registra um aumento significativo em comparação ao mesmo período do
+ano passado, no qual o Governo Central obteve déficit de R$ 76,1 bilhões.&lt;br&gt; A dívida líquida do setor público (DLSP), que inclui os passivos do governo exceto o
+pagamento de juros, fechou o mês de setembro no patamar de R$ 4,8 trilhões, cerca de
+58,5% do PIB. Redução de 0,9 pontos percentuais em relação ao mês anterior e aumento
+de 10,4% comparado a setembro de 2020.</t>
+  </si>
+  <si>
+    <t>Segundo os dados divulgados pelo Instituto Brasileiro de Geografia e Estatística (IBGE),
+o Produto Interno Bruto (PIB) brasileiro apresentou leve queda de 0,1% (com ajuste sazonal)
+no 3° trimestre deste ano em relação ao período anterior. Essa redução foi influenciada
+principalmente pela queda de 8% no setor agrícola, enquanto a indústria manteve-se no
+mesmo nível do trimestre anterior e o setor de serviços registrou aumento de 1,1%. Em
+valores correntes, o PIB do 3° trimestre fechou no patamar de R$ 2,2 trilhões.</t>
+  </si>
+  <si>
+    <t>Segundo dados divulgados pelo Instituto Jones dos Santos Neves (IJSN), o Produto
+Interno Bruto (PIB) capixaba cresceu 0,4% no segundo trimestre desse ano comparado
+ao trimestre imediatamente anterior. Este resultado é superior à variação do PIB nacional
+que apresentou uma leve retração de 0,1% na passagem do 1° para o 2° trimestre. &lt;br&gt;
+Em relação ao acumulado do ano, o PIB capixaba fechou o período com alta de 7,9%
+comparado ao mesmo período de 2020, superando o resultado nacional que foi 6,4%.
+Além disso, em número absolutos, o PIB nominal capixaba fechou o 2° trimestre no patamar de R$ 40 bilhões.</t>
   </si>
 </sst>
 </file>
@@ -446,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,48 +489,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.25">

--- a/data-raw/resenhas/conjuntura.xlsx
+++ b/data-raw/resenhas/conjuntura.xlsx
@@ -31,32 +31,13 @@
     <t>consumo</t>
   </si>
   <si>
-    <t>Um dos principais motores da economia, o consumo das famílias reduziu seu ritmo de crescimento no 2T de 2018, divulgou o IBGE. Apesar da alta de 1,7% no trimestre, se comparado ao mesmo período de 2017, houve crescimento de apenas 0,1% em relção ao semestre anterior. Contribuem para esse cenário o aumento da informalidade no mercado de trabalho e estagnação da renda.</t>
-  </si>
-  <si>
     <t>credito</t>
   </si>
   <si>
     <t>setorpublico.es</t>
   </si>
   <si>
-    <t>Para 2019, é esperado um aumento dos juros, motivado por uma provável recuperação da economia. Na média, os analistas do mercado financeiro esperam que a Selic feche o próximo ano em 7,5%. &lt;br&gt;
-No mercado de trabalho, a taxa de desemprego no Brasil recuou para 11,6% no trimestre encerrado em novembro, segundo dados divulgados pelo IBGE, se mantendo praticamente constante — caiu 0,1% em relação ao mês anterior. Não obstante, o sinal é positivo pois foi a oitava queda mensal consecutiva no país.</t>
-  </si>
-  <si>
-    <t>A lenta retomada da economia e o mercado de trabalho fragilizado continuam contribuindo para desaceleração do consumo e, consequentemente, da demanda por crédito. Embora em crescimento, a demanda por crédito foi bem aquém do projetado para o trimestre, conforme a Pesquisa Trimestral de Condições de Crédito do Departamento de Estudos e Pesquisas do Banco Central, frustando as expectativas do mercado de crédito pelo segundo trimestre consecutivo.&lt;br&gt;
-Pelo lado da oferta, houve melhora da percepção do mercado em relação ao risco de crédito, revertendo o resultado negativo do trimestre anterior. Entretanto, a oferta também esteve abaixo da expectativa para o trimestre.&lt;br&gt;
-O Espírito Santo ganhou destaque em setembro, quando um estudo da Fecomercio-SP apontou Vitória como a cidade de maior endividamento das famílias entre as capitais — 49%. Embora o endividamento não seja sinônimo da inadimplência, o primeiro antecede o segundo e sua elevação representa um fator de risco a ser monitorado pelos bancos.</t>
-  </si>
-  <si>
-    <t>O Índice Nacional de Preços ao Consumidor Amplo (IPCA) teve queda de 0,21% em novembro, conforme divulgado pelo IBGE. O resultado foi o menor desde julho de 2017, quando houve queda de 0,23%. Entre os meses de novembro, a queda é a menor desde o início do Plano Real em 1994. Em 12 meses, a inflação acumula 4,05% enquanto a taxa acumulada de 2018 é de 3,59%.&lt;br&gt;
-O comportamento brando dos índices de inflação é essencial para a recuperação do consumo das famílias e do crédito, uma vez que os últimos dados mostram contração da renda média familiar durante o período de recessão. Para 2019, os economistas das instituições financeiras diminuíram a expectativa de inflação de 4,03% para 4,01%. A meta central do próximo ano é de 4,25%, e o intervalo de tolerância do sistema de metas varia de 2,75% a 5,75%.</t>
-  </si>
-  <si>
     <t>setorpublico.br</t>
-  </si>
-  <si>
-    <t>Aqui é a resenha de setor público capixaba.</t>
   </si>
   <si>
     <t>Passado o pior momento da pandemia, que exigiu uma série de gastos extraordinários
@@ -85,6 +66,31 @@
 Em relação ao acumulado do ano, o PIB capixaba fechou o período com alta de 7,9%
 comparado ao mesmo período de 2020, superando o resultado nacional que foi 6,4%.
 Além disso, em número absolutos, o PIB nominal capixaba fechou o 2° trimestre no patamar de R$ 40 bilhões.</t>
+  </si>
+  <si>
+    <t>O consumo das famílias é o principal componente do PIB pela ótica da demanda, somando cerca de 60% do PIB (R$ 1,3 trilhões) no 3° trimestre desse ano. Além disso, os
+dados divulgados pelo IBGE revelam que o consumo das famílias cresceu 0,9% no 3º
+trimestre em relação ao anterior (com ajuste sazonal). No que se refere ao acumulado
+do ano, o aumento foi mais expressivo, chegando a 4,2% comparativamente ao mesmo
+período do ano passado.</t>
+  </si>
+  <si>
+    <t>O saldo total de crédito cresceu 18,8% no acumulado dos últimos doze meses, atingindo R$ 4,5 trilhões em outubro de 2021, aumento de 1,5% em relação ao mês anterior. Esse montante representa cerca de 53,2% do
+Produto Interno Bruto (PIB) do país. &lt;br&gt;
+Já no Espírito Santo, o saldo total de crédito em outubro foi de R$ 68.737 milhões de reais, sendo o crédito destinado às famílias em R$ 38.131 milhões, e o destinado às pessoas jurídicas em R$ 30.605 milhões. A trajetória do saldo de pessoas físicas durante o ano se manteve estável, enquanto o de pessoas jurídicas teve
+maior variação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Índice Nacional de Preços ao Consumidor Amplo registrou alta de 0,95% em novembro e 9,26% no acumulado do ano, valor bem distante de 3,75% que é o centro da meta estipulada pelo Conselho Monetário Nacional (CMN), mesmo com faixa de tolerência de 1,5 ponto percentual (p.p.) para mais ou para menos. &lt;br&gt;   O destaque se dá para o setor de transportes, que teve o maior aumento do índice por três meses consecutivos. Essa variação foi influenciada principalmente pelo preço dos combustíveis, que no acumulado do ano sofreu aumento de 50,43%, como a economia de modo geral depende dos transportes esse aumento impacta diretamente todos os outros setores.                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa básica de juros (Selic) é o principal instrumento econômico que o Comitê de
+Política Monetária (Copom) utiliza para controlar o aumento da inflação. A taxa aumentou 7 vezes seguidas em 2021 e passou de 2% em março para 9,25% em dezembro. O impacto da alta da Selic poderia  proporcionar uma queda na cotação do dólar. No entanto, o Federal Reserve (Fed) anunciou a retirada de incentivos da economia, a injeção mensal de US$ 120 bilhões será reduzida em US$ 15 bilhões mês a mês, isso ocasionara redução na liquidez dos mercados, levando a valorização do dólar. &lt;br&gt; No mercado de trabalho, os dados da Pesquisa Nacional por Amostra de Domicílios Contínua (PNAD Contínua) revelam sinais de recuperação nos últimos meses. Visto que a taxa de desocupação segue caindo desde março desse ano, chegando a 12,1% no terceiro trimestre, após atingir o maior nível da série no primeiro trimestre de 2021 (14,9%). 
+</t>
+  </si>
+  <si>
+    <t>As contas públicas capixabas apresentam sinais de melhora, o resultado primáriodo estado do Espírito Santo e munícipios foi superavitário no 2° trimestre de 2021, atingindo o valor de R$ 409,7 milhões. Esse dado representa um aumento de 382% frente ao superávit de R$ 85 milhões registrado no trimestre anterior. &lt;br&gt; A melhora do resultado primário foi puxada principalmente pela queda de aproximadamente 80% da dívida líquida capixaba (diferença de cerca de
+R$ 635 milhões) no 2° trimestre desse ano comparado ao trimestre anterior.</t>
   </si>
 </sst>
 </file>
@@ -465,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,39 +504,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.25">
